--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_4_0.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_4_0.xlsx
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_20</t>
+          <t>model_4_0_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999486859898307</v>
+        <v>0.9997290609304479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989836653870691</v>
+        <v>0.9989848289314792</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9998903327243318</v>
+        <v>0.9998741364510773</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998910290035303</v>
+        <v>0.9997671793864032</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999066600767818</v>
+        <v>0.9998298311312332</v>
       </c>
       <c r="G2" t="n">
-        <v>4.789937606837206e-05</v>
+        <v>0.0002529097285762167</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009487037492375007</v>
+        <v>0.0009476176316043446</v>
       </c>
       <c r="I2" t="n">
-        <v>6.653831905915176e-05</v>
+        <v>0.0001229646960287309</v>
       </c>
       <c r="J2" t="n">
-        <v>6.390071699251399e-05</v>
+        <v>0.0002544315576808873</v>
       </c>
       <c r="K2" t="n">
-        <v>6.521951802583288e-05</v>
+        <v>0.0001886981268548091</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007179269721116582</v>
+        <v>0.001783239828433079</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006920937513687871</v>
+        <v>0.01590313580952564</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9995894879186453</v>
+        <v>0.9978324874435831</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007215576151961272</v>
+        <v>0.01658016522496661</v>
       </c>
       <c r="P2" t="n">
-        <v>61.89281615868944</v>
+        <v>58.56495587390607</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.48920848092165</v>
+        <v>84.16134819613828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_19</t>
+          <t>model_4_0_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.99994157361809</v>
+        <v>0.9996675603556135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989830750042922</v>
+        <v>0.9989331968346532</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998756184682011</v>
+        <v>0.9998536298707653</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999883142432142</v>
+        <v>0.9997147107831426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99989696231287</v>
+        <v>0.9997949433991181</v>
       </c>
       <c r="G3" t="n">
-        <v>5.453846289124055e-05</v>
+        <v>0.0003103178156208602</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009492548456449724</v>
+        <v>0.0009958139276042639</v>
       </c>
       <c r="I3" t="n">
-        <v>7.546588531063239e-05</v>
+        <v>0.0001429989747077902</v>
       </c>
       <c r="J3" t="n">
-        <v>6.852541147681495e-05</v>
+        <v>0.0003117704172033519</v>
       </c>
       <c r="K3" t="n">
-        <v>7.199564839372369e-05</v>
+        <v>0.0002273846959555711</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007659231189730102</v>
+        <v>0.001964360574984737</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007385016106362975</v>
+        <v>0.01761583990676744</v>
       </c>
       <c r="N3" t="n">
-        <v>0.99953258894472</v>
+        <v>0.9973404828449084</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007699411531101677</v>
+        <v>0.01836578268141423</v>
       </c>
       <c r="P3" t="n">
-        <v>61.63320872817911</v>
+        <v>58.15582714795094</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.22960105041132</v>
+        <v>83.75221947018315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_23</t>
+          <t>model_4_0_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999987680930067</v>
+        <v>0.9995906633090026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989711799691451</v>
+        <v>0.9988662412740432</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999667022607667</v>
+        <v>0.9998226284135546</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999154537752863</v>
+        <v>0.9996486086356859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999950066129774</v>
+        <v>0.9997487144788204</v>
       </c>
       <c r="G4" t="n">
-        <v>1.149931103778702e-05</v>
+        <v>0.0003820978332420153</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009603583388230702</v>
+        <v>0.001058314004424288</v>
       </c>
       <c r="I4" t="n">
-        <v>2.020270480465261e-05</v>
+        <v>0.0001732864153129438</v>
       </c>
       <c r="J4" t="n">
-        <v>4.957800289284707e-05</v>
+        <v>0.0003840083178068649</v>
       </c>
       <c r="K4" t="n">
-        <v>3.489035384874984e-05</v>
+        <v>0.0002786473665599043</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002369897096951285</v>
+        <v>0.002164226997894325</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003391063408104753</v>
+        <v>0.01954732291752544</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9999014474405357</v>
+        <v>0.9967253064720207</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003535427997856748</v>
+        <v>0.02037949292266123</v>
       </c>
       <c r="P4" t="n">
-        <v>64.74644686829475</v>
+        <v>57.73966774836871</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.34283919052697</v>
+        <v>83.33606007060091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_24</t>
+          <t>model_4_0_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999876724253624</v>
+        <v>0.9994940458881757</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989708014478232</v>
+        <v>0.9987800193151332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999665469624388</v>
+        <v>0.9997766319771076</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999148625998572</v>
+        <v>0.9995657918603384</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999497506365337</v>
+        <v>0.9996876437742785</v>
       </c>
       <c r="G5" t="n">
-        <v>1.150724980620692e-05</v>
+        <v>0.0004722859545692801</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009607116718618739</v>
+        <v>0.00113879841836025</v>
       </c>
       <c r="I5" t="n">
-        <v>2.029692880745395e-05</v>
+        <v>0.000218223475125132</v>
       </c>
       <c r="J5" t="n">
-        <v>4.992466884083416e-05</v>
+        <v>0.0004745123364512962</v>
       </c>
       <c r="K5" t="n">
-        <v>3.511079882414406e-05</v>
+        <v>0.0003463679057882141</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002328284381150329</v>
+        <v>0.002428412029683754</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00339223374875714</v>
+        <v>0.0217321410488999</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999013794028988</v>
+        <v>0.9959523671054056</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003536648162333646</v>
+        <v>0.02265732328508533</v>
       </c>
       <c r="P5" t="n">
-        <v>64.74506660658788</v>
+        <v>57.31585183974273</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.34145892882009</v>
+        <v>82.91224416197494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_21</t>
+          <t>model_4_0_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999657621817923</v>
+        <v>0.9993734211364876</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989686312015458</v>
+        <v>0.9986709153043158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999329242942377</v>
+        <v>0.9997113259238205</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998928725421123</v>
+        <v>0.9994632197864715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999259254209795</v>
+        <v>0.9996083323036475</v>
       </c>
       <c r="G6" t="n">
-        <v>3.195950043029456e-05</v>
+        <v>0.0005848838654553863</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009627375014990846</v>
+        <v>0.001240642223345621</v>
       </c>
       <c r="I6" t="n">
-        <v>4.069677744738073e-05</v>
+        <v>0.0002820254182612852</v>
       </c>
       <c r="J6" t="n">
-        <v>6.281966385903205e-05</v>
+        <v>0.0005866053857966828</v>
       </c>
       <c r="K6" t="n">
-        <v>5.175822065320639e-05</v>
+        <v>0.000434315402028984</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005801045884195451</v>
+        <v>0.002730266786924205</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00565327342610408</v>
+        <v>0.02418437233949615</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9997260974543387</v>
+        <v>0.9949873690919011</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005893944979742619</v>
+        <v>0.02521395113854083</v>
       </c>
       <c r="P6" t="n">
-        <v>62.70208213656105</v>
+        <v>56.88819450205864</v>
       </c>
       <c r="Q6" t="n">
-        <v>88.29847445879327</v>
+        <v>82.48458682429084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_22</t>
+          <t>model_4_0_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999797814139775</v>
+        <v>0.9992242491821131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989627181674212</v>
+        <v>0.9985353865662434</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999607556471046</v>
+        <v>0.9996230284439886</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999123499250541</v>
+        <v>0.9993382117326006</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999461818862306</v>
+        <v>0.9995078372436098</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8873162558643e-05</v>
+        <v>0.0007241293369720564</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009682570593021584</v>
+        <v>0.001367152351312262</v>
       </c>
       <c r="I7" t="n">
-        <v>2.381068790407504e-05</v>
+        <v>0.0003682892560488369</v>
       </c>
       <c r="J7" t="n">
-        <v>5.139810421986989e-05</v>
+        <v>0.0007232169743397082</v>
       </c>
       <c r="K7" t="n">
-        <v>3.760439606197247e-05</v>
+        <v>0.0005457531151942726</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004225240416859422</v>
+        <v>0.003061502344548891</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004344325328361471</v>
+        <v>0.02690965137217605</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9998382513118198</v>
+        <v>0.9937939934569044</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004529272251583005</v>
+        <v>0.02805525094174724</v>
       </c>
       <c r="P7" t="n">
-        <v>63.75553923090852</v>
+        <v>56.46108107861316</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.35193155314073</v>
+        <v>82.05747340084537</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999160957658411</v>
+        <v>0.9990417989802257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989496805281276</v>
+        <v>0.9983699192828592</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998603075488398</v>
+        <v>0.9995121309676561</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998378752504721</v>
+        <v>0.9991870184488583</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998713199016959</v>
+        <v>0.9993844835598621</v>
       </c>
       <c r="G8" t="n">
-        <v>7.832091961712043e-05</v>
+        <v>0.0008944385917955688</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009804271232965074</v>
+        <v>0.001521608797177036</v>
       </c>
       <c r="I8" t="n">
-        <v>8.475546446117809e-05</v>
+        <v>0.0004766325737471594</v>
       </c>
       <c r="J8" t="n">
-        <v>9.507013859371162e-05</v>
+        <v>0.0008884443659318162</v>
       </c>
       <c r="K8" t="n">
-        <v>8.991280152744486e-05</v>
+        <v>0.0006825384698394877</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009414902235268098</v>
+        <v>0.003420559823809046</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008849910712381252</v>
+        <v>0.02990716622810608</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9993287661267285</v>
+        <v>0.9923343918418057</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009226669733248028</v>
+        <v>0.03118037621080537</v>
       </c>
       <c r="P8" t="n">
-        <v>60.90939163603865</v>
+        <v>56.03862861648687</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.50578395827085</v>
+        <v>81.63502093871908</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999027194250094</v>
+        <v>0.9988117674452022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989387417406286</v>
+        <v>0.9981567357265301</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998407247278832</v>
+        <v>0.9993581911364869</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998154591721847</v>
+        <v>0.9989972962608155</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999853411527759</v>
+        <v>0.9992231836175892</v>
       </c>
       <c r="G9" t="n">
-        <v>9.080714662996967e-05</v>
+        <v>0.001109162932522688</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009906380012695696</v>
+        <v>0.001720606289333734</v>
       </c>
       <c r="I9" t="n">
-        <v>9.663693029457505e-05</v>
+        <v>0.0006270269072015767</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001082149525453386</v>
+        <v>0.001095777003212709</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001024259414199568</v>
+        <v>0.0008614019552071426</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001017411389537036</v>
+        <v>0.003828780224951563</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009529278389782181</v>
+        <v>0.03330409783379049</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9992217554000753</v>
+        <v>0.9904941395616174</v>
       </c>
       <c r="O9" t="n">
-        <v>0.009934959499160881</v>
+        <v>0.03472192222756158</v>
       </c>
       <c r="P9" t="n">
-        <v>60.61354513615154</v>
+        <v>55.6082993259799</v>
       </c>
       <c r="Q9" t="n">
-        <v>86.20993745838373</v>
+        <v>81.2046916482121</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998627737972988</v>
+        <v>0.9985261807354787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9988581861497871</v>
+        <v>0.9978906859209054</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998422374884334</v>
+        <v>0.9991603676179167</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999843150111569</v>
+        <v>0.9987638910469498</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998656879467013</v>
+        <v>0.9990210270700187</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001280946366873722</v>
+        <v>0.001375745590241768</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001065833109338348</v>
+        <v>0.001968952104647629</v>
       </c>
       <c r="I10" t="n">
-        <v>9.571909456339926e-05</v>
+        <v>0.0008202942116477133</v>
       </c>
       <c r="J10" t="n">
-        <v>9.197695401201873e-05</v>
+        <v>0.001350847425102074</v>
       </c>
       <c r="K10" t="n">
-        <v>9.3848024287709e-05</v>
+        <v>0.001085570818374894</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001211068333813537</v>
+        <v>0.004281125126336559</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01131789011642065</v>
+        <v>0.03709104460974061</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9989021903783906</v>
+        <v>0.9882094458838298</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01179971612993904</v>
+        <v>0.03867008716782442</v>
       </c>
       <c r="P10" t="n">
-        <v>59.92548243621695</v>
+        <v>55.17751889475613</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.52187475844916</v>
+        <v>80.77391121698834</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994292664157202</v>
+        <v>0.9981735702105246</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9984136706567154</v>
+        <v>0.997559112472909</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9993834451244676</v>
+        <v>0.9989039768901133</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993371053330286</v>
+        <v>0.9984757107053005</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9994541506724127</v>
+        <v>0.9987660798696539</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000532754748616321</v>
+        <v>0.001704892037473323</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001480768810145689</v>
+        <v>0.002278461363959978</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003740817374708093</v>
+        <v>0.001070779822285344</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003887221910627751</v>
+        <v>0.001665777327940667</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003814019642667922</v>
+        <v>0.001368278575113006</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002424080087457035</v>
+        <v>0.004781134347688881</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02308148064176822</v>
+        <v>0.0412903383065981</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9954341313257613</v>
+        <v>0.9853885616841964</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02406410705794007</v>
+        <v>0.04304815349109346</v>
       </c>
       <c r="P11" t="n">
-        <v>57.07489874724126</v>
+        <v>54.74850698276308</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.67129106947347</v>
+        <v>80.34489930499528</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9992982604349224</v>
+        <v>0.9977359120008278</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9982859509057647</v>
+        <v>0.997142232830992</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9992319153830539</v>
+        <v>0.9985590985801601</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9991755671576875</v>
+        <v>0.998115827302096</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9993205773765338</v>
+        <v>0.998436820229947</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0006550430811929813</v>
+        <v>0.002113426765250098</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001599989591409053</v>
+        <v>0.002667600210788101</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004660192294865986</v>
+        <v>0.001407714994646724</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0004834483618822348</v>
+        <v>0.002059065935191779</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0004747337956844167</v>
+        <v>0.001733390464919251</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002677154882892936</v>
+        <v>0.005337846505913489</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02559380943105151</v>
+        <v>0.04597202154843855</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9943860834793794</v>
+        <v>0.9818872960066223</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0266833908850207</v>
+        <v>0.04792914568095939</v>
       </c>
       <c r="P12" t="n">
-        <v>56.66161910335649</v>
+        <v>54.31888917898442</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.25801142558871</v>
+        <v>79.91528150121663</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9985283641867533</v>
+        <v>0.9971955641958081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9977366673344024</v>
+        <v>0.9966274434348131</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9982194914037926</v>
+        <v>0.9981376545775348</v>
       </c>
       <c r="E13" t="n">
-        <v>0.998036326159131</v>
+        <v>0.9976744446614346</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9984029718594641</v>
+        <v>0.998033672823616</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001373707434319375</v>
+        <v>0.002617817722708579</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002112721694513583</v>
+        <v>0.003148133515478143</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00108028624163565</v>
+        <v>0.001819452420768197</v>
       </c>
       <c r="J13" t="n">
-        <v>0.001151500586726056</v>
+        <v>0.002541418726303811</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001115893414180853</v>
+        <v>0.002180435573536003</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004349621875608931</v>
+        <v>0.005952205917898631</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03706355938545804</v>
+        <v>0.05116461397009245</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9882269134940262</v>
+        <v>0.977564513566465</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03864143184064189</v>
+        <v>0.05334279751215124</v>
       </c>
       <c r="P13" t="n">
-        <v>55.18048407550666</v>
+        <v>53.89082847710437</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.77687639773887</v>
+        <v>79.48722079933658</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9983364023362783</v>
+        <v>0.9965271712388573</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9975925638249984</v>
+        <v>0.9959851149145625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9979276409489676</v>
+        <v>0.9975891099356323</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9976942140093166</v>
+        <v>0.9971305033081682</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9981327040590946</v>
+        <v>0.9975239989447137</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001552895395586468</v>
+        <v>0.003241733208962241</v>
       </c>
       <c r="H14" t="n">
-        <v>0.002247235995129185</v>
+        <v>0.003747718994168713</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001257360383054678</v>
+        <v>0.00235536314096515</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001352115542753104</v>
+        <v>0.003135849965276163</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001304737962903891</v>
+        <v>0.002745606553120656</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004641607970647797</v>
+        <v>0.006635074726720572</v>
       </c>
       <c r="M14" t="n">
-        <v>0.03940679377450629</v>
+        <v>0.05693622053633558</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9866912186902264</v>
+        <v>0.9722173699108581</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0410844225687958</v>
+        <v>0.059360113318792</v>
       </c>
       <c r="P14" t="n">
-        <v>54.93526818687081</v>
+        <v>53.46329430234024</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.53166050910302</v>
+        <v>79.05968662457245</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9943680494336309</v>
+        <v>0.9956981256189775</v>
       </c>
       <c r="C15" t="n">
-        <v>0.994035269489387</v>
+        <v>0.9951865178842039</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9896944858064881</v>
+        <v>0.9969016899900562</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9937974540152182</v>
+        <v>0.9964635210522038</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9929230050122709</v>
+        <v>0.9968925189239425</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005257178639647328</v>
+        <v>0.004015610904223136</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005567814110247701</v>
+        <v>0.004493174267650236</v>
       </c>
       <c r="I15" t="n">
-        <v>0.006252654561705297</v>
+        <v>0.003026950628965627</v>
       </c>
       <c r="J15" t="n">
-        <v>0.003637180061181076</v>
+        <v>0.003864743046128837</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004944917311443186</v>
+        <v>0.003445846837547232</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008101705223901497</v>
+        <v>0.007394695684996069</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07250640412851356</v>
+        <v>0.0633688480581992</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9549443954690471</v>
+        <v>0.9655850049518202</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07559315186121235</v>
+        <v>0.06606659111163603</v>
       </c>
       <c r="P15" t="n">
-        <v>52.49632155286215</v>
+        <v>53.03513157537024</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.09271387509435</v>
+        <v>78.63152389760245</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9930083442078405</v>
+        <v>0.9946729043917885</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9927445258695827</v>
+        <v>0.9941929742232645</v>
       </c>
       <c r="D16" t="n">
-        <v>0.98737331881837</v>
+        <v>0.9960116378197661</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9922048477090677</v>
+        <v>0.9956401041670306</v>
       </c>
       <c r="F16" t="n">
-        <v>0.991246948835816</v>
+        <v>0.9960946917680223</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006526403783761279</v>
+        <v>0.004972609917793323</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006772666622238245</v>
+        <v>0.005420603663610878</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007660973941428644</v>
+        <v>0.003896503374825616</v>
       </c>
       <c r="J16" t="n">
-        <v>0.004571086221047439</v>
+        <v>0.004764591377764229</v>
       </c>
       <c r="K16" t="n">
-        <v>0.006116030081238042</v>
+        <v>0.004330547376294922</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009087500431915928</v>
+        <v>0.008236930996847788</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08078616084306321</v>
+        <v>0.07051673501937908</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9440667536627236</v>
+        <v>0.9573832351343077</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0842253949605596</v>
+        <v>0.07351877841891916</v>
       </c>
       <c r="P16" t="n">
-        <v>52.06379841927751</v>
+        <v>52.60762088468709</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.66019074150972</v>
+        <v>78.2040132069193</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9913349651507982</v>
+        <v>0.993437234394724</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9911472371088332</v>
+        <v>0.9929952406986881</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9846035877851678</v>
+        <v>0.994976158281105</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9901718832132457</v>
+        <v>0.994648937362944</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9891913594717493</v>
+        <v>0.9951501415284463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.008088429680658926</v>
+        <v>0.0061260536204089</v>
       </c>
       <c r="H17" t="n">
-        <v>0.008263665567524491</v>
+        <v>0.006538635334377521</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009341450146133856</v>
+        <v>0.004908134047925426</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005763218927106378</v>
+        <v>0.005847760561065812</v>
       </c>
       <c r="K17" t="n">
-        <v>0.007552334536620117</v>
+        <v>0.005377947304495619</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01017445291804471</v>
+        <v>0.009151425310601445</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08993569747691361</v>
+        <v>0.07826911025691362</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9306797212063858</v>
+        <v>0.9474978751577918</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0937644463110649</v>
+        <v>0.08160118831994462</v>
       </c>
       <c r="P17" t="n">
-        <v>51.63464134595083</v>
+        <v>52.19040903537287</v>
       </c>
       <c r="Q17" t="n">
-        <v>77.23103366818304</v>
+        <v>77.78680135760507</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9893093196114341</v>
+        <v>0.9919009806208823</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9892204593586215</v>
+        <v>0.9914990253742938</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9813924675106287</v>
+        <v>0.9935987465476021</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9875134040970452</v>
+        <v>0.9934029224479588</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9866816568964726</v>
+        <v>0.9939293862526694</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009979280876092528</v>
+        <v>0.007560079084543109</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01006222802157875</v>
+        <v>0.007935286663437235</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01128973001415074</v>
+        <v>0.006253821632347355</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007322154122143139</v>
+        <v>0.007209433442241234</v>
       </c>
       <c r="K18" t="n">
-        <v>0.009305942068146941</v>
+        <v>0.006731627537294295</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01138987971320441</v>
+        <v>0.01016737839609432</v>
       </c>
       <c r="M18" t="n">
-        <v>0.09989635066453893</v>
+        <v>0.08694871525527625</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9144745568914727</v>
+        <v>0.9352078449670582</v>
       </c>
       <c r="O18" t="n">
-        <v>0.104149145126282</v>
+        <v>0.09065030207234683</v>
       </c>
       <c r="P18" t="n">
-        <v>51.21448849551743</v>
+        <v>51.76974725585402</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.81088081774963</v>
+        <v>77.36613957808622</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.987672844905461</v>
+        <v>0.9900492392448854</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9874856115692677</v>
+        <v>0.989694526437243</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9794862853537302</v>
+        <v>0.9919707808647326</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9856738300651855</v>
+        <v>0.9918848755954393</v>
       </c>
       <c r="F19" t="n">
-        <v>0.985082140297795</v>
+        <v>0.9924642122043829</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01150685818118085</v>
+        <v>0.009288598376983891</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01168163228192365</v>
+        <v>0.009619707212825384</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01244626605252487</v>
+        <v>0.007844292479964612</v>
       </c>
       <c r="J19" t="n">
-        <v>0.008400882438896147</v>
+        <v>0.008868388890181494</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01042357424571051</v>
+        <v>0.008356340685073052</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01235674295984092</v>
+        <v>0.01127239943713354</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1072700246162964</v>
+        <v>0.09637737481890597</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9013827592436883</v>
+        <v>0.9203939139590833</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1118367316437752</v>
+        <v>0.1004803591936162</v>
       </c>
       <c r="P19" t="n">
-        <v>50.92962411557217</v>
+        <v>51.35793522384373</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.52601643780437</v>
+        <v>76.95432754607593</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9808010833545958</v>
+        <v>0.9877116035861651</v>
       </c>
       <c r="C20" t="n">
-        <v>0.980711215923428</v>
+        <v>0.9874027289920526</v>
       </c>
       <c r="D20" t="n">
-        <v>0.967788625616796</v>
+        <v>0.9898486057781785</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9775494900367681</v>
+        <v>0.9900095831222284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9765943042833107</v>
+        <v>0.9906052953659006</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0179213459534428</v>
+        <v>0.01147067865405308</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01800523325571364</v>
+        <v>0.01175899952962932</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01954357572014592</v>
+        <v>0.009917590243068935</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01316500472579527</v>
+        <v>0.01091775031782853</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0163542902229706</v>
+        <v>0.01041767028044873</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01542460111780037</v>
+        <v>0.01253105738412987</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1338706314075003</v>
+        <v>0.1071012542132588</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8464086668367665</v>
+        <v>0.9016928286893204</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1395697813369277</v>
+        <v>0.1116607763352773</v>
       </c>
       <c r="P20" t="n">
-        <v>50.04352553049362</v>
+        <v>50.93592236368927</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.63991785272582</v>
+        <v>76.53231468592148</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9760538768210377</v>
+        <v>0.9848413348222317</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9760179074794771</v>
+        <v>0.9845837351553566</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9606930799320695</v>
+        <v>0.9871914356078614</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9721300649175652</v>
+        <v>0.9876992045236593</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9712395767251822</v>
+        <v>0.9882963125492435</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02235265487423565</v>
+        <v>0.01414994855494734</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02238623067571088</v>
+        <v>0.01439040653665675</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02384864922354523</v>
+        <v>0.01251356123773911</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01634296181551155</v>
+        <v>0.01344258356427249</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02009580551952839</v>
+        <v>0.0129780724010058</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01725359614760673</v>
+        <v>0.01391788435536973</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1495080428412988</v>
+        <v>0.1189535562938214</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8084310145683018</v>
+        <v>0.8787306785778535</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1558729097493673</v>
+        <v>0.1240176554530572</v>
       </c>
       <c r="P21" t="n">
-        <v>49.60162035731565</v>
+        <v>50.51608858118453</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.19801267954786</v>
+        <v>76.11248090341674</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8862636081432875</v>
+        <v>0.9813230824393805</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8878227320992611</v>
+        <v>0.9811266566541312</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8284953554012432</v>
+        <v>0.9838571605030272</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8546937786380726</v>
+        <v>0.9848414461283794</v>
       </c>
       <c r="F22" t="n">
-        <v>0.864565532715226</v>
+        <v>0.9854193285031092</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1061679293476388</v>
+        <v>0.01743408272090797</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1047125555723695</v>
+        <v>0.01761743756934269</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1040568455166652</v>
+        <v>0.01577104228170521</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08520773443677436</v>
+        <v>0.01656560565735089</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09463228997671976</v>
+        <v>0.01616832396952805</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03856952767497286</v>
+        <v>0.01543831548726927</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3258342053063778</v>
+        <v>0.1320381866011041</v>
       </c>
       <c r="N22" t="n">
-        <v>0.09010886514630023</v>
+        <v>0.8505846595150439</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3397056419960598</v>
+        <v>0.1376593255614395</v>
       </c>
       <c r="P22" t="n">
-        <v>46.4854663986488</v>
+        <v>50.09865642320059</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.081858720881</v>
+        <v>75.69504874543279</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8613236748829578</v>
+        <v>0.9769405289338062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8631890889468206</v>
+        <v>0.9768053873716871</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7907576579678477</v>
+        <v>0.9796078410109608</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8236575684981341</v>
+        <v>0.9813198366945197</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8351577829870344</v>
+        <v>0.9818121348525186</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1294482623096102</v>
+        <v>0.02152500404649597</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1277069801632081</v>
+        <v>0.02165115276270518</v>
       </c>
       <c r="I23" t="n">
-        <v>0.126953401823747</v>
+        <v>0.01992249267495359</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1034074035682209</v>
+        <v>0.02041409896710809</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1151804026959839</v>
+        <v>0.02016829582103084</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04251740526081498</v>
+        <v>0.01714682201859974</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3597891914852503</v>
+        <v>0.1467140213016328</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.1094106009363376</v>
+        <v>0.8155242314704498</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3751061622330783</v>
+        <v>0.1529599409283358</v>
       </c>
       <c r="P23" t="n">
-        <v>46.08894799303234</v>
+        <v>49.67708008135568</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.68534031526454</v>
+        <v>75.27347240358789</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8319187765442967</v>
+        <v>0.9715164719114944</v>
       </c>
       <c r="C24" t="n">
-        <v>0.832357899928053</v>
+        <v>0.9714569825001556</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8029043175621982</v>
+        <v>0.9742680807548724</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8004181865551063</v>
+        <v>0.9769449963022298</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8306797597473362</v>
+        <v>0.9773041483298607</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1568964441828883</v>
+        <v>0.02658812318823775</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1564865417794406</v>
+        <v>0.02664365394243916</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1195836709111534</v>
+        <v>0.02513926911559976</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1170350037254369</v>
+        <v>0.02519502209251296</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1183093373182951</v>
+        <v>0.02516714560405636</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04762015971430967</v>
+        <v>0.01905645026088897</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3961015579152501</v>
+        <v>0.1630586495351833</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.3446497876456265</v>
+        <v>0.772131775291955</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4129644212789642</v>
+        <v>0.1700003938238333</v>
       </c>
       <c r="P24" t="n">
-        <v>45.70433856490319</v>
+        <v>49.2545813191732</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.3007308871354</v>
+        <v>74.8509736414054</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8032935564305536</v>
+        <v>0.9647990070655108</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8036562993284051</v>
+        <v>0.964830743454428</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7652181977823151</v>
+        <v>0.9675444029305539</v>
       </c>
       <c r="E25" t="n">
-        <v>0.772912235963705</v>
+        <v>0.9715174405888484</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8027757655763096</v>
+        <v>0.9716677901668006</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1836168306571242</v>
+        <v>0.03285858175933531</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1832782260845527</v>
+        <v>0.03282895723334755</v>
       </c>
       <c r="I25" t="n">
-        <v>0.142448933558893</v>
+        <v>0.03170808913488912</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1331645246190086</v>
+        <v>0.031126375992934</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1378067290889508</v>
+        <v>0.03141723256391156</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0511271036984765</v>
+        <v>0.02121315284015338</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4285053449574745</v>
+        <v>0.1812693624398103</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.5736515485555715</v>
+        <v>0.7183920565240864</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4467477046206624</v>
+        <v>0.1889863744781828</v>
       </c>
       <c r="P25" t="n">
-        <v>45.38980826950286</v>
+        <v>48.8310846547954</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.98620059173507</v>
+        <v>74.42747697702761</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7334185141860889</v>
+        <v>0.9488225290016162</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7340444271083917</v>
+        <v>0.9489523122460846</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5770003566587265</v>
+        <v>0.9520769114950569</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7641308397485578</v>
+        <v>0.9584359542608666</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7173733640361852</v>
+        <v>0.9584081090477231</v>
       </c>
       <c r="G26" t="n">
-        <v>0.248842115432463</v>
+        <v>0.04777192274564472</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2482578531938953</v>
+        <v>0.04765077578375952</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2566461604800552</v>
+        <v>0.0468193377765473</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1383139454054775</v>
+        <v>0.04542211592674637</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1974800529427664</v>
+        <v>0.04612072685164683</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0583264591626971</v>
+        <v>0.02565387050467891</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4988407716220307</v>
+        <v>0.2185678904726051</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.132651886511288</v>
+        <v>0.5905802320129299</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5200774560127339</v>
+        <v>0.2278727780679308</v>
       </c>
       <c r="P26" t="n">
-        <v>44.78187331639229</v>
+        <v>48.0826344046489</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.3782656386245</v>
+        <v>73.6790267268811</v>
       </c>
     </row>
   </sheetData>
